--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233583.008296244</v>
+        <v>-1212568.218216178</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16811344.3723657</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10258466.92624161</v>
+        <v>10287216.15651857</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>404.4573365239078</v>
+        <v>51.73886505846946</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>298.2919035163171</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.93290484855497</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>123.8578015321701</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>251.0689921801395</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>277.6142739417392</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>310.6883293919657</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>41.70493334703202</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>199.6534388573866</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.06982180601949</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>69.98849254743202</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>215.8782216969078</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>5.99062281901876</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,13 +1582,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>157.8824880649921</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>77.14020824926261</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H16" t="n">
-        <v>20.73696989209183</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199325</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556944</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225526</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932905</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>73.01514676193308</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>136.0564930766981</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.2234111170472</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>99.2861660332424</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>390.4213656038046</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
         <v>71.53763939432403</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934448</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432343</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934044</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277812</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>405.8008644413112</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>417.5253377496634</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>415.3149766385524</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561368</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>270.0031426724684</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925389</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169443</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267642</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>384.5711897043295</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>398.7153284477349</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245956</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628598</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.983502531745</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730226</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856831</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277817</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432706</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934362</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762358</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>227.1849416185818</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>259.4129604006782</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>253.0704300308239</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402853</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.3228423446452</v>
+        <v>832.9370734075248</v>
       </c>
       <c r="C2" t="n">
-        <v>472.2207735684726</v>
+        <v>832.9370734075248</v>
       </c>
       <c r="D2" t="n">
-        <v>63.67800940290911</v>
+        <v>780.675593550485</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4328,52 +4328,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>832.9370734075248</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>832.9370734075248</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449918</v>
+        <v>832.9370734075248</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446452</v>
+        <v>832.9370734075248</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.4105542393174</v>
+        <v>673.9125995673351</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>501.35088805056</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,46 +4492,46 @@
         <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>269.215608100497</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>689.2685070454004</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1017.03975105604</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1017.03975105604</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="W4" t="n">
-        <v>1017.03975105604</v>
+        <v>1146.724024919814</v>
       </c>
       <c r="X4" t="n">
-        <v>1017.03975105604</v>
+        <v>901.3322702532269</v>
       </c>
       <c r="Y4" t="n">
-        <v>1017.03975105604</v>
+        <v>673.9125995673351</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>1265.626980106462</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1231.52491133029</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1199.655530545138</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>765.8807857034336</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>742.0537601530455</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.6559287763093</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.52577421952555</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666556</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>574.8490166666538</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1207.32270414414</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1839.796391621626</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580221</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333278</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2471.797368517115</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2251.730141390153</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1992.50783870717</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.089380180161</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1711.274329631598</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.541784186435</v>
+        <v>1696.172270251313</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>1287.886146550966</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>557.2807298379583</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.8242686746006</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.7339798211539</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.6135651481076</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>178.2297267642692</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.84463703045309</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666556</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>77.17265800712315</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.7309829733355</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1034.204670450822</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1056.437029599059</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1597.175968231135</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1714.348746325474</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.893308773857</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.714665104459</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1344.378118104427</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1145.260600166427</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.9378458996207</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>805.0704101385007</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.5846309177215</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.930316449007</v>
+        <v>1130.167145458547</v>
       </c>
       <c r="C7" t="n">
-        <v>646.930316449007</v>
+        <v>957.6054339417718</v>
       </c>
       <c r="D7" t="n">
-        <v>646.930316449007</v>
+        <v>791.7274411432945</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.9694373940318</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>445.262383355788</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>279.6711083816157</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.7689340719902</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666556</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>51.10898484666556</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.8674394178012</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>744.0773211857621</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>1203.561188366675</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>1645.81999152432</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2065.489240750101</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.996134720443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333278</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333278</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333278</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2555.449242333278</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>2353.779102073291</v>
       </c>
       <c r="V7" t="n">
-        <v>1164.348475529303</v>
+        <v>2066.823593943722</v>
       </c>
       <c r="W7" t="n">
-        <v>892.3220711155946</v>
+        <v>1794.797189530013</v>
       </c>
       <c r="X7" t="n">
-        <v>646.930316449007</v>
+        <v>1549.405434863426</v>
       </c>
       <c r="Y7" t="n">
-        <v>646.930316449007</v>
+        <v>1321.985764177534</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6066390714051</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>408.5045702952325</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>376.6351895100811</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>346.9008487087803</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.4401176967148</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1605.070161768181</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1605.070161768181</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1605.070161768181</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1605.070161768181</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1605.070161768181</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1359.678407101594</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1132.258736415702</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1850.39369190706</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1850.39369190706</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1632.334882112204</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.560137270499</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>770.6927076797067</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>369.2948763029706</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>515.4194091991047</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1349.769701157283</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1484.09369519399</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1484.09369519399</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.09369519399</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.273361764296</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597692</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556287</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309344</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493181</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366219</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.294683683236</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617063</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.822279028096</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607407</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.39369190706</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1085.492766498581</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L12" t="n">
-        <v>1085.492766498581</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M12" t="n">
-        <v>1085.492766498581</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N12" t="n">
-        <v>1085.492766498581</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O12" t="n">
-        <v>1085.492766498581</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1076.614067293369</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>904.0523557765936</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>738.1743629781163</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>568.4163592288535</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>391.7093051906097</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>226.1180302164374</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>86.2158559068119</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618688</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2696.824331648987</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2537.582962946983</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T13" t="n">
-        <v>2291.703516525438</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.270515778544</v>
+        <v>2132.904553083697</v>
       </c>
       <c r="V13" t="n">
-        <v>2013.270515778544</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W13" t="n">
-        <v>1741.244111364835</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1495.852356698248</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.432686012356</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,7 +5285,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423627</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1246.54233171619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1062.363260807472</v>
+        <v>949.5782250957557</v>
       </c>
       <c r="C16" t="n">
-        <v>889.8015492906967</v>
+        <v>777.0165135789805</v>
       </c>
       <c r="D16" t="n">
-        <v>723.9235564922194</v>
+        <v>611.1385207805031</v>
       </c>
       <c r="E16" t="n">
-        <v>554.1655527429566</v>
+        <v>533.2191185085206</v>
       </c>
       <c r="F16" t="n">
-        <v>377.4584987047128</v>
+        <v>356.5120644702768</v>
       </c>
       <c r="G16" t="n">
-        <v>211.8672237305405</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5461,25 +5461,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1726.993304878938</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1481.601550212351</v>
+        <v>1368.816514500635</v>
       </c>
       <c r="Y16" t="n">
-        <v>1254.181879526459</v>
+        <v>1141.396843814743</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5507,58 +5507,58 @@
         <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N17" t="n">
-        <v>3572.656769371182</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D18" t="n">
         <v>406.885835245268</v>
@@ -5583,10 +5583,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
         <v>128.3245134312372</v>
@@ -5595,37 +5595,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S18" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T18" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V18" t="n">
         <v>1196.412455590541</v>
@@ -5634,10 +5634,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831961</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066039</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745649</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X19" t="n">
         <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651792</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.84779000966</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L20" t="n">
         <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P20" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D21" t="n">
         <v>406.885835245268</v>
@@ -5820,49 +5820,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>426.819165236992</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>426.819165236992</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>426.819165236992</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N21" t="n">
-        <v>426.819165236992</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O21" t="n">
-        <v>426.819165236992</v>
+        <v>287.8657185439752</v>
       </c>
       <c r="P21" t="n">
-        <v>1246.54233171619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T21" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V21" t="n">
         <v>1196.412455590541</v>
@@ -5871,10 +5871,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>949.5782250957659</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>777.0165135789907</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>611.1385207805133</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>441.3805170312505</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>264.6734629930065</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961044</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O22" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q22" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580941</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1368.816514500645</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1141.396843814753</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5975,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1246.54233171619</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.559169283196</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6145,25 +6145,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q25" t="n">
         <v>2718.920450173579</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>864.7097725347917</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>692.1480610180166</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>526.2700682195393</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>356.5120644702766</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2612.634176317976</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2366.754729896431</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2088.321729149536</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1801.366221019967</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1529.339816606258</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1283.948061939671</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.528391253779</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2526.607815969826</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2088.465343153249</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1652.555558327694</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1218.780813485989</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>790.9133838951965</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004236</v>
+        <v>389.5155525184604</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436399</v>
+        <v>100.3853979616766</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881662</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>2758.053686176683</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2474.288037325477</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3454.467703895784</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4282.777578729179</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4829.276364687775</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>4998.430429440831</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>4931.178263037545</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4727.51074332346</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4484.688148053353</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4138.470905400056</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3750.015158223965</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3347.272402216152</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2952.907386454734</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801094</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167517</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.593603563305</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902587</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064203</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881662</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>126.0322817492742</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>450.5906067154865</v>
       </c>
       <c r="K33" t="n">
-        <v>782.9943603411569</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="L33" t="n">
-        <v>782.9943603411569</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="M33" t="n">
-        <v>782.9943603411569</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="N33" t="n">
-        <v>782.9943603411569</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="O33" t="n">
-        <v>782.9943603411569</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="P33" t="n">
-        <v>1602.717526820355</v>
+        <v>1105.29665334121</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806518</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598725</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310565</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>908.0668132066664</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>758.5885278210649</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>605.2302314846784</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>444.9228848593107</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>295.7313172980145</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>172.2288504012652</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881664</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>202.6216469888664</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.4534547953619</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.7366897986828</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751064</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2660.948916274804</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056458</v>
+        <v>2845.215044374496</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194948</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542891</v>
+        <v>2205.842236860929</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144236</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143404</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1450.667691889692</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
@@ -6923,46 +6923,46 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>153.4018419862336</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>153.4018419862336</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239093</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239093</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T35" t="n">
         <v>4607.415497673521</v>
@@ -7008,10 +7008,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362754</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
         <v>448.1887018024878</v>
@@ -7072,25 +7072,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7117,7 +7117,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
         <v>2694.953364290617</v>
@@ -7126,7 +7126,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
         <v>1932.884531231236</v>
@@ -7135,7 +7135,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
         <v>1237.245823703677</v>
@@ -7154,7 +7154,7 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
@@ -7175,31 +7175,31 @@
         <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.19279167554</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.19279167554</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T38" t="n">
         <v>4607.415497673521</v>
@@ -7309,22 +7309,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E40" t="n">
-        <v>602.828326571679</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463113</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581786</v>
@@ -7348,13 +7348,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7394,67 +7394,67 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>322.5559067392883</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>322.5559067392883</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1397.615872992148</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1397.615872992148</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428596</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998903</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832299</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
         <v>1128.922221872865</v>
@@ -7564,7 +7564,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7579,25 +7579,25 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
@@ -7634,52 +7634,52 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835861</v>
+        <v>755.2952747835863</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197264</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581887</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M44" t="n">
-        <v>2523.346856428596</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
@@ -7688,7 +7688,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7719,31 +7719,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q45" t="n">
         <v>1643.633687060287</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397569</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936699</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080688</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716823</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463148</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850187</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882694</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758674</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856838</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -7831,25 +7831,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290619</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.47362528195</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947932</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231239</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230406</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976695</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.24582370368</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8140,13 +8140,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>321.9475215913874</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>89.37913572431347</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>638.8623105833194</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833194</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833195</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>22.45692843256302</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>143.8920278917522</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>135.6808020572798</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>516.772174552771</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,25 +9164,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>833.0630236930792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935889</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>379.5169886652535</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965087</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,10 +9416,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767492</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>288.7351832965069</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.95402330576326</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10370,7 +10370,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>56.39912960648061</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>7.571051709084713</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>227.2618212762328</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>81.9345526149732</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,25 +11297,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -22547,16 +22547,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>27.09335045339213</v>
+        <v>379.8118219188304</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.9675276832423</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>215.6724652803921</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.78272691405266</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>117.7661826744336</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>90.92021546250761</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.7661826744374</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627281</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>90.92021546249764</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>139.5921776627277</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>52.42554389793612</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.017600831192671e-12</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>801937.9543981173</v>
+        <v>669689.0656842157</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>873953.3719975915</v>
+        <v>889356.5558285222</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>873953.3719975915</v>
+        <v>891413.4748783257</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>763217.9864101651</v>
+        <v>910701.3676708665</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910701.3676708664</v>
+        <v>910701.367670866</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>910701.3676708664</v>
+        <v>910701.3676708663</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>910701.3676708664</v>
+        <v>910701.3676708663</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>925100.4580881036</v>
+        <v>923520.0453818839</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97937.15202976244</v>
+        <v>80872.77929248488</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,7 +26320,7 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>88307.1440901928</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="F2" t="n">
         <v>105371.5168274704</v>
@@ -26341,7 +26341,7 @@
         <v>105371.5168274705</v>
       </c>
       <c r="L2" t="n">
-        <v>107229.4639780818</v>
+        <v>107229.4639780817</v>
       </c>
       <c r="M2" t="n">
         <v>107229.4639780817</v>
@@ -26353,7 +26353,7 @@
         <v>107229.4639780817</v>
       </c>
       <c r="P2" t="n">
-        <v>107229.4639780816</v>
+        <v>107229.4639780817</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.1311837197</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092102095</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725246</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471827</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197345</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>12988.56827099791</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978837</v>
+        <v>144718.1170387509</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.363169671475202e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571708</v>
+        <v>136875.480238864</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.119437218</v>
+        <v>178390.1777075793</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726678</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875272</v>
       </c>
       <c r="G4" t="n">
+        <v>94878.44464875275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94878.44464875277</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="J4" t="n">
         <v>94878.44464875289</v>
-      </c>
-      <c r="H4" t="n">
-        <v>94878.44464875291</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94878.44464875286</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94878.44464875288</v>
       </c>
       <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653861</v>
+        <v>103678.8250359888</v>
       </c>
       <c r="M4" t="n">
         <v>107302.2988178706</v>
@@ -26454,10 +26454,10 @@
         <v>107302.2988178706</v>
       </c>
       <c r="O4" t="n">
+        <v>107302.2988178705</v>
+      </c>
+      <c r="P4" t="n">
         <v>107302.2988178706</v>
-      </c>
-      <c r="P4" t="n">
-        <v>107302.2988178705</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346582</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>77341.06245996879</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608973</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289253.3276243406</v>
+        <v>-257948.2483018814</v>
       </c>
       <c r="C6" t="n">
-        <v>-164288.4435963586</v>
+        <v>-212951.2733966832</v>
       </c>
       <c r="D6" t="n">
-        <v>-164288.4435963586</v>
+        <v>-149773.0449422211</v>
       </c>
       <c r="E6" t="n">
-        <v>-224638.7852467006</v>
+        <v>-249603.4999875073</v>
       </c>
       <c r="F6" t="n">
-        <v>-146364.0721317932</v>
+        <v>-67248.39076645735</v>
       </c>
       <c r="G6" t="n">
-        <v>-67225.16642707492</v>
+        <v>-67248.39076645757</v>
       </c>
       <c r="H6" t="n">
-        <v>-67225.16642707495</v>
+        <v>-67248.39076645748</v>
       </c>
       <c r="I6" t="n">
-        <v>-67225.16642707492</v>
+        <v>-67248.39076645739</v>
       </c>
       <c r="J6" t="n">
-        <v>-178239.6317720651</v>
+        <v>-178262.8561114478</v>
       </c>
       <c r="K6" t="n">
-        <v>-67225.16642707492</v>
+        <v>-122470.929658431</v>
       </c>
       <c r="L6" t="n">
-        <v>-85063.06529656291</v>
+        <v>-86778.9917888739</v>
       </c>
       <c r="M6" t="n">
-        <v>-204946.8709637623</v>
+        <v>-220306.5666046295</v>
       </c>
       <c r="N6" t="n">
-        <v>-143237.6498392902</v>
+        <v>-75588.44956587857</v>
       </c>
       <c r="O6" t="n">
+        <v>-75588.4495658786</v>
+      </c>
+      <c r="P6" t="n">
         <v>-75588.44956587857</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-75588.44956587862</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874737</v>
@@ -26725,7 +26725,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
     </row>
     <row r="3">
@@ -26790,22 +26790,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833194</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360208</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632151</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453754</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072316</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574094</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632151</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702095</v>
+        <v>580.7214853644039</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574096</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.0453962089344e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632151</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453754</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072316</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574094</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>60.69887704919466</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.3614113383224</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>24.57967855928618</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>81.37650662377251</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>104.2627093945167</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>126.3554903647381</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27825,10 +27825,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>75.99523188203906</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>399.9667529740392</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>87.66046246755128</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28548,10 +28548,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-7.294294719937651e-12</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-2.135034342655078e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.153954071505931e-12</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-2.164592920462698e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.0453962089344e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.78189685953851</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874739</v>
       </c>
     </row>
     <row r="35">
@@ -30651,7 +30651,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
         <v>16.23571033874737</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791303497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874747</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>407.152590549595</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34860,13 +34860,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1941962971706</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>321.9475215913874</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34875,7 +34875,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>89.37913572431347</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>638.8623105833194</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833194</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833195</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>22.45692843256302</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>143.8920278917522</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>135.6808020572798</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>516.772174552771</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35580,13 +35580,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821575</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>833.0630236930792</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935889</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>379.5169886652535</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960954</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965087</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,10 +36136,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767492</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>288.7351832965069</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>524.2002727610084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908058</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,10 +36528,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821539</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.95402330576326</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37090,7 +37090,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>56.39912960648061</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>7.571051709084713</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>227.2618212762328</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>81.9345526149732</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327045</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37947,10 +37947,10 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.04787110526237e-12</v>
       </c>
       <c r="J44" t="n">
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>7.571051709082894</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963859</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.6899377778278</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033062</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O46" t="n">
         <v>440.1440428900419</v>
